--- a/data/Самостоятельная работа №1 (Общая экология 2024-2025).xlsx
+++ b/data/Самостоятельная работа №1 (Общая экология 2024-2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="653">
   <si>
     <t>Id</t>
   </si>
@@ -1977,6 +1977,18 @@
   </si>
   <si>
     <t>Паводки на крупных реках;Падение численности птиц из-за экстремально низких температур;Затопление нижних отделов приморского луга во время сильного вета;</t>
+  </si>
+  <si>
+    <t>st138471@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Астапова</t>
+  </si>
+  <si>
+    <t>st138472@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зиннатуллина</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2001,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1998,10 +2010,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2349,12 +2379,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2458,28 +2503,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2488,125 +2524,146 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2794,8 +2851,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AR100" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AR100" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AR103" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AR103" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="44">
     <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="Время начала"/>
@@ -3104,15 +3161,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR100"/>
+  <dimension ref="A1:AR103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="E101" sqref="D101:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="44" width="20" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="25.2222222222222" customWidth="1"/>
+    <col min="5" max="44" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -12327,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" ht="15.15" spans="1:43">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12420,7 +12479,150 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" ht="15.15" spans="1:44">
+      <c r="A101" s="3"/>
+      <c r="D101" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F101" s="3">
+        <v>8</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="3"/>
+      <c r="AI101" s="6"/>
+      <c r="AJ101" s="6"/>
+      <c r="AK101" s="3"/>
+      <c r="AL101" s="6"/>
+      <c r="AM101" s="6"/>
+      <c r="AN101" s="3"/>
+      <c r="AO101" s="6"/>
+      <c r="AP101" s="6"/>
+      <c r="AQ101" s="3"/>
+      <c r="AR101" s="6"/>
+    </row>
+    <row r="102" ht="15.15" spans="1:44">
+      <c r="A102" s="3"/>
+      <c r="D102" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F102" s="3">
+        <v>8</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="3"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="3"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="3"/>
+      <c r="AI102" s="6"/>
+      <c r="AJ102" s="6"/>
+      <c r="AK102" s="3"/>
+      <c r="AL102" s="6"/>
+      <c r="AM102" s="6"/>
+      <c r="AN102" s="3"/>
+      <c r="AO102" s="6"/>
+      <c r="AP102" s="6"/>
+      <c r="AQ102" s="3"/>
+      <c r="AR102" s="6"/>
+    </row>
+    <row r="103" ht="15.15" spans="1:44">
+      <c r="A103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="3"/>
+      <c r="AI103" s="6"/>
+      <c r="AJ103" s="6"/>
+      <c r="AK103" s="3"/>
+      <c r="AL103" s="6"/>
+      <c r="AM103" s="6"/>
+      <c r="AN103" s="3"/>
+      <c r="AO103" s="6"/>
+      <c r="AP103" s="6"/>
+      <c r="AQ103" s="3"/>
+      <c r="AR103" s="6"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D102" r:id="rId2" display="st138472@student.spbu.ru"/>
+    <hyperlink ref="D101" r:id="rId3" display="st138471@student.spbu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/data/Самостоятельная работа №1 (Общая экология 2024-2025).xlsx
+++ b/data/Самостоятельная работа №1 (Общая экология 2024-2025).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="659">
   <si>
     <t>Id</t>
   </si>
@@ -1989,6 +1989,24 @@
   </si>
   <si>
     <t>Зиннатуллина</t>
+  </si>
+  <si>
+    <t>st136599@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Костригин</t>
+  </si>
+  <si>
+    <t>st136654@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Сергеева</t>
+  </si>
+  <si>
+    <t>st118917@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Коновалова</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2032,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -2022,7 +2039,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2030,7 +2046,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -2648,7 +2663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2660,9 +2675,12 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2851,8 +2869,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AR103" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AR103" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:AR105" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AR105" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="44">
     <tableColumn id="1" name="Id" dataDxfId="0"/>
     <tableColumn id="2" name="Время начала"/>
@@ -3161,10 +3179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR103"/>
+  <dimension ref="A1:AR105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E101" sqref="D101:E102"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12577,9 +12595,17 @@
       <c r="AQ102" s="3"/>
       <c r="AR102" s="6"/>
     </row>
-    <row r="103" ht="15.15" spans="1:44">
+    <row r="103" spans="1:44">
       <c r="A103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="D103" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="F103" s="3">
+        <v>9</v>
+      </c>
       <c r="G103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="3"/>
@@ -12618,6 +12644,104 @@
       <c r="AQ103" s="3"/>
       <c r="AR103" s="6"/>
     </row>
+    <row r="104" spans="1:44">
+      <c r="A104" s="3"/>
+      <c r="D104" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="F104" s="3">
+        <v>6</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="3"/>
+      <c r="AI104" s="6"/>
+      <c r="AJ104" s="6"/>
+      <c r="AK104" s="3"/>
+      <c r="AL104" s="6"/>
+      <c r="AM104" s="6"/>
+      <c r="AN104" s="3"/>
+      <c r="AO104" s="6"/>
+      <c r="AP104" s="6"/>
+      <c r="AQ104" s="3"/>
+      <c r="AR104" s="6"/>
+    </row>
+    <row r="105" spans="1:44">
+      <c r="A105" s="3"/>
+      <c r="D105" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="F105" s="3">
+        <v>10</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="3"/>
+      <c r="AI105" s="6"/>
+      <c r="AJ105" s="6"/>
+      <c r="AK105" s="3"/>
+      <c r="AL105" s="6"/>
+      <c r="AM105" s="6"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="6"/>
+      <c r="AP105" s="6"/>
+      <c r="AQ105" s="3"/>
+      <c r="AR105" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D102" r:id="rId2" display="st138472@student.spbu.ru"/>
